--- a/2ИСИП-622_ТерВер.xlsx
+++ b/2ИСИП-622_ТерВер.xlsx
@@ -561,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -577,12 +577,12 @@
     <col min="3" max="10" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
@@ -617,7 +617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -642,8 +642,20 @@
       <c r="J3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -689,8 +701,24 @@
         <f>O4-M4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <f>IF(R$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:U19" si="0">IF(S$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -723,7 +751,7 @@
       </c>
       <c r="K5" s="7"/>
       <c r="L5">
-        <f t="shared" ref="L5:L31" si="0">SUM(C5:J5)</f>
+        <f t="shared" ref="L5:L31" si="1">SUM(C5:J5)</f>
         <v>40</v>
       </c>
       <c r="M5" s="9">
@@ -733,11 +761,27 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P31" si="1">O5-M5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P5:P31" si="2">O5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:U31" si="3">IF(R$3=$M5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -770,7 +814,7 @@
       </c>
       <c r="K6" s="7"/>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M6" s="9">
@@ -780,11 +824,27 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -817,7 +877,7 @@
       </c>
       <c r="K7" s="7"/>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M7" s="9">
@@ -827,11 +887,27 @@
         <v>5</v>
       </c>
       <c r="P7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -864,7 +940,7 @@
       </c>
       <c r="K8" s="7"/>
       <c r="L8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M8" s="9">
@@ -874,11 +950,27 @@
         <v>5</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -911,7 +1003,7 @@
       </c>
       <c r="K9" s="7"/>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M9" s="9">
@@ -921,11 +1013,27 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -958,7 +1066,7 @@
       </c>
       <c r="K10" s="7"/>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="M10" s="9">
@@ -968,11 +1076,27 @@
         <v>4</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1005,7 +1129,7 @@
       </c>
       <c r="K11" s="7"/>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M11" s="9">
@@ -1015,11 +1139,27 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1052,7 +1192,7 @@
       </c>
       <c r="K12" s="7"/>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M12" s="9">
@@ -1062,11 +1202,27 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1099,7 +1255,7 @@
       </c>
       <c r="K13" s="7"/>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M13" s="9">
@@ -1109,11 +1265,27 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1146,7 +1318,7 @@
       </c>
       <c r="K14" s="7"/>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M14" s="9">
@@ -1156,11 +1328,27 @@
         <v>5</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1193,7 +1381,7 @@
       </c>
       <c r="K15" s="7"/>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M15" s="9">
@@ -1203,11 +1391,27 @@
         <v>5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1240,7 +1444,7 @@
       </c>
       <c r="K16" s="7"/>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M16" s="9">
@@ -1250,11 +1454,27 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1287,7 +1507,7 @@
       </c>
       <c r="K17" s="7"/>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M17" s="9">
@@ -1297,11 +1517,27 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1334,7 +1570,7 @@
       </c>
       <c r="K18" s="7"/>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M18" s="9">
@@ -1344,11 +1580,27 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1381,7 +1633,7 @@
       </c>
       <c r="K19" s="7"/>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="M19" s="9">
@@ -1391,11 +1643,27 @@
         <v>3</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1428,7 +1696,7 @@
       </c>
       <c r="K20" s="7"/>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M20" s="9">
@@ -1438,11 +1706,27 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1475,7 +1759,7 @@
       </c>
       <c r="K21" s="5"/>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M21" s="9">
@@ -1485,11 +1769,27 @@
         <v>5</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1522,7 +1822,7 @@
       </c>
       <c r="K22" s="7"/>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M22" s="9">
@@ -1532,11 +1832,27 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1569,7 +1885,7 @@
       </c>
       <c r="K23" s="7"/>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M23" s="9">
@@ -1579,11 +1895,27 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1616,7 +1948,7 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M24" s="9">
@@ -1626,11 +1958,27 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1663,7 +2011,7 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M25" s="9">
@@ -1673,11 +2021,27 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1710,7 +2074,7 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M26" s="9">
@@ -1720,11 +2084,27 @@
         <v>5</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1757,7 +2137,7 @@
       </c>
       <c r="K27" s="7"/>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M27" s="9">
@@ -1767,11 +2147,27 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1804,7 +2200,7 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M28" s="9">
@@ -1814,11 +2210,27 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1851,7 +2263,7 @@
       </c>
       <c r="K29" s="7"/>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M29" s="9">
@@ -1861,11 +2273,27 @@
         <v>5</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1898,7 +2326,7 @@
       </c>
       <c r="K30" s="7"/>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="M30" s="9">
@@ -1908,11 +2336,27 @@
         <v>5</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1945,7 +2389,7 @@
       </c>
       <c r="K31" s="7"/>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M31" s="9">
@@ -1955,11 +2399,27 @@
         <v>5</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1970,6 +2430,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="C4:J31 M8:M10 M4:M6 M12:M30">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L31">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1981,7 +2453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L31">
+  <conditionalFormatting sqref="M11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1993,7 +2465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
+  <conditionalFormatting sqref="M7">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2005,7 +2477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
+  <conditionalFormatting sqref="M31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2017,7 +2489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31">
+  <conditionalFormatting sqref="R4:U31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-622_ТерВер.xlsx
+++ b/2ИСИП-622_ТерВер.xlsx
@@ -561,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2426,6 +2426,38 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f>SUM(R4:R31)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ref="S35:U35" si="4">SUM(S4:S31)</f>
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
